--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26940" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ClientCache" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>create-client-cache-from-xml</t>
   </si>
@@ -37,18 +37,38 @@
     <t>create region</t>
   </si>
   <si>
-    <t>Directly from xml</t>
-  </si>
-  <si>
-    <t>from clojure map</t>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>create region by taking only shortcut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -76,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,57 +432,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ClientCache" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>create-client-cache-from-xml</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>create region by taking only shortcut</t>
+  </si>
+  <si>
+    <t>Create region by using attributes</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -504,6 +507,14 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ClientCache" sheetId="1" r:id="rId1"/>
@@ -20,49 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t>create-client-cache-from-xml</t>
+    <t>FunctionService API</t>
   </si>
   <si>
-    <t>Get api</t>
+    <t>Function getFunction(String functionId)</t>
   </si>
   <si>
-    <t>Put api</t>
+    <t>ServerSide</t>
   </si>
   <si>
-    <t>Handle basic ClientCache Capabilities</t>
+    <t>Map getRegisteredFunctions()</t>
   </si>
   <si>
-    <t>create region</t>
+    <t>boolean isRegistered(String)</t>
   </si>
   <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Backlog</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>create region by taking only shortcut</t>
-  </si>
-  <si>
-    <t>Create region by using attributes</t>
+    <t>ClientSide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +56,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +86,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -105,7 +96,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,91 +427,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ClientCache" sheetId="1" r:id="rId1"/>
+    <sheet name="RegionNS" sheetId="1" r:id="rId1"/>
     <sheet name="Cache" sheetId="2" r:id="rId2"/>
+    <sheet name="Conjode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,40 +21,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>FunctionService API</t>
-  </si>
-  <si>
-    <t>Function getFunction(String functionId)</t>
-  </si>
-  <si>
-    <t>ServerSide</t>
-  </si>
-  <si>
-    <t>Map getRegisteredFunctions()</t>
-  </si>
-  <si>
-    <t>boolean isRegistered(String)</t>
-  </si>
-  <si>
-    <t>ClientSide</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+  <si>
+    <t>gget</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Target Version</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Get the value associated with a given key</t>
+  </si>
+  <si>
+    <t>Puts a key-value pair</t>
+  </si>
+  <si>
+    <t>Puts an entire map into the region</t>
+  </si>
+  <si>
+    <t>get-region</t>
+  </si>
+  <si>
+    <t>Returns a org.apache.geode.cache.Region for a given region-name</t>
+  </si>
+  <si>
+    <t>beta0.1</t>
+  </si>
+  <si>
+    <t>gput</t>
+  </si>
+  <si>
+    <t>gput-all</t>
+  </si>
+  <si>
+    <t>create-region</t>
+  </si>
+  <si>
+    <t>Creates a distributed region</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>VISION</t>
+  </si>
+  <si>
+    <t>Should support the basic apis using which a clojure developer should be able to create regions and manage data in the regions. The idea is that the developer should be able to do what he needs to without using the cache.xml file.</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>No disk over flow supported in beta</t>
+  </si>
+  <si>
+    <t>create-region-attributes</t>
+  </si>
+  <si>
+    <t>create-cache-loader</t>
+  </si>
+  <si>
+    <t>Creates region attributes which can be used to be associated with a region</t>
+  </si>
+  <si>
+    <t>Creates a cache loader which can be used to be associated with a region</t>
+  </si>
+  <si>
+    <t>beta0.2</t>
+  </si>
+  <si>
+    <t>create-cache-writer</t>
+  </si>
+  <si>
+    <t>create-key-constraint</t>
+  </si>
+  <si>
+    <t>create-value-constraint</t>
+  </si>
+  <si>
+    <t>backlog</t>
+  </si>
+  <si>
+    <t>create-eviction-attributes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,16 +136,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,19 +192,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="18">
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,49 +584,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="1:6" ht="16" thickBot="1">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickTop="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -498,4 +813,34 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RegionNS" sheetId="1" r:id="rId1"/>
-    <sheet name="Cache" sheetId="2" r:id="rId2"/>
+    <sheet name="beta0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Region Interface" sheetId="2" r:id="rId2"/>
     <sheet name="Conjode" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Region Interface'!$A$2:$C$2</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>gget</t>
   </si>
@@ -65,15 +68,6 @@
     <t>gput-all</t>
   </si>
   <si>
-    <t>create-region</t>
-  </si>
-  <si>
-    <t>Creates a distributed region</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>VISION</t>
   </si>
   <si>
@@ -83,37 +77,229 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>No disk over flow supported in beta</t>
-  </si>
-  <si>
-    <t>create-region-attributes</t>
-  </si>
-  <si>
-    <t>create-cache-loader</t>
-  </si>
-  <si>
-    <t>Creates region attributes which can be used to be associated with a region</t>
-  </si>
-  <si>
-    <t>Creates a cache loader which can be used to be associated with a region</t>
-  </si>
-  <si>
-    <t>beta0.2</t>
-  </si>
-  <si>
-    <t>create-cache-writer</t>
-  </si>
-  <si>
-    <t>create-key-constraint</t>
-  </si>
-  <si>
-    <t>create-value-constraint</t>
-  </si>
-  <si>
-    <t>backlog</t>
-  </si>
-  <si>
-    <t>create-eviction-attributes</t>
+    <t>clear()</t>
+  </si>
+  <si>
+    <t>becomeLockGrantor()</t>
+  </si>
+  <si>
+    <t>close()</t>
+  </si>
+  <si>
+    <t>Region Interface</t>
+  </si>
+  <si>
+    <t>Supported in Conjode ?</t>
+  </si>
+  <si>
+    <t>containsKey()</t>
+  </si>
+  <si>
+    <t>containsKeyOnServer()</t>
+  </si>
+  <si>
+    <t>ContainsValue(value)</t>
+  </si>
+  <si>
+    <t>containsValueForKey(key)</t>
+  </si>
+  <si>
+    <t>create (key, value)</t>
+  </si>
+  <si>
+    <t>create (key, value, callback)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>createSubRegion</t>
+  </si>
+  <si>
+    <t>destroy (key)</t>
+  </si>
+  <si>
+    <t>destrory (key, callback)</t>
+  </si>
+  <si>
+    <t>destroyRegion</t>
+  </si>
+  <si>
+    <t>entries</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>existsValue(predicate)</t>
+  </si>
+  <si>
+    <t>get(key, callback)</t>
+  </si>
+  <si>
+    <t>get (key)</t>
+  </si>
+  <si>
+    <t>getAll (keys)</t>
+  </si>
+  <si>
+    <t>getAll (keys, callback)</t>
+  </si>
+  <si>
+    <t>getAttributes ()</t>
+  </si>
+  <si>
+    <t>getAttributesMutator()</t>
+  </si>
+  <si>
+    <t>getCache()</t>
+  </si>
+  <si>
+    <t>getDistributedLock ()</t>
+  </si>
+  <si>
+    <t>getEntryOfKey (key)</t>
+  </si>
+  <si>
+    <t>getFullPath ()</t>
+  </si>
+  <si>
+    <t>getInterestList ()</t>
+  </si>
+  <si>
+    <t>getInterestListRegex ()</t>
+  </si>
+  <si>
+    <t>getName ()</t>
+  </si>
+  <si>
+    <t>getParentRegion ()</t>
+  </si>
+  <si>
+    <t>getRegionService ()</t>
+  </si>
+  <si>
+    <t>getSnapshotService()</t>
+  </si>
+  <si>
+    <t>getStatistics()</t>
+  </si>
+  <si>
+    <t>getSubregion</t>
+  </si>
+  <si>
+    <t>getUserAttribute</t>
+  </si>
+  <si>
+    <t>invalidate</t>
+  </si>
+  <si>
+    <t>invalidate (key, callback)</t>
+  </si>
+  <si>
+    <t>invalidateRegion</t>
+  </si>
+  <si>
+    <t>invalidateRegion(callback)</t>
+  </si>
+  <si>
+    <t>isDestroyed</t>
+  </si>
+  <si>
+    <t>isEmpty</t>
+  </si>
+  <si>
+    <t>keySet</t>
+  </si>
+  <si>
+    <t>keySetOnServer</t>
+  </si>
+  <si>
+    <t>localClear</t>
+  </si>
+  <si>
+    <t>localDestroy</t>
+  </si>
+  <si>
+    <t>localDestroy (key, callback)</t>
+  </si>
+  <si>
+    <t>localDestroyRegion</t>
+  </si>
+  <si>
+    <t>localDestroyRegion (region, callback)</t>
+  </si>
+  <si>
+    <t>localInvalidate</t>
+  </si>
+  <si>
+    <t>localInvalidate (callback)</t>
+  </si>
+  <si>
+    <t>put (k, v)</t>
+  </si>
+  <si>
+    <t>put (k, v, callback)</t>
+  </si>
+  <si>
+    <t>putAll (map)</t>
+  </si>
+  <si>
+    <t>putAll (map, callback)</t>
+  </si>
+  <si>
+    <t>putIfAbsent (k, v)</t>
+  </si>
+  <si>
+    <t>query (predicate)</t>
+  </si>
+  <si>
+    <t>registerInterest related</t>
+  </si>
+  <si>
+    <t>remove (key)</t>
+  </si>
+  <si>
+    <t>remove (key, value)</t>
+  </si>
+  <si>
+    <t>removeAll (keys)</t>
+  </si>
+  <si>
+    <t>removeAll (keys, callback)</t>
+  </si>
+  <si>
+    <t>replace (k, v)</t>
+  </si>
+  <si>
+    <t>replace (k, v, oldValue)</t>
+  </si>
+  <si>
+    <t>selectValue</t>
+  </si>
+  <si>
+    <t>setUserAttribute</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>subregions</t>
+  </si>
+  <si>
+    <t>unregisterInterest</t>
+  </si>
+  <si>
+    <t>unregisterInterestRegex</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>Conjode function</t>
   </si>
 </sst>
 </file>
@@ -202,7 +388,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,8 +407,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,8 +423,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="Accent6" xfId="3" builtinId="49"/>
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -255,6 +443,7 @@
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -612,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickTop="1">
@@ -681,110 +870,6 @@
       </c>
       <c r="E5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -800,13 +885,626 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C2"/>
+  <sortState ref="A1:C72">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A47" r:id="rId2" location="getSnapshotService--"/>
+    <hyperlink ref="A48" r:id="rId3" location="getStatistics--"/>
+    <hyperlink ref="A49" r:id="rId4" location="getSubregion-java.lang.String-"/>
+    <hyperlink ref="A50" r:id="rId5" location="getUserAttribute--"/>
+    <hyperlink ref="A13" r:id="rId6" location="invalidate-java.lang.Object-"/>
+    <hyperlink ref="A51" r:id="rId7" location="invalidate-java.lang.Object-java.lang.Object-" display="invalidate"/>
+    <hyperlink ref="A52" r:id="rId8" location="invalidateRegion--"/>
+    <hyperlink ref="A53" r:id="rId9" location="invalidateRegion-java.lang.Object-" display="invalidateRegion"/>
+    <hyperlink ref="A54" r:id="rId10" location="isDestroyed--"/>
+    <hyperlink ref="A55" r:id="rId11" location="isEmpty--"/>
+    <hyperlink ref="A14" r:id="rId12" location="keySet--"/>
+    <hyperlink ref="A56" r:id="rId13" location="keySetOnServer--"/>
+    <hyperlink ref="A57" r:id="rId14" location="localClear--"/>
+    <hyperlink ref="A58" r:id="rId15" location="localDestroy-java.lang.Object-"/>
+    <hyperlink ref="A59" r:id="rId16" location="localDestroy-java.lang.Object-java.lang.Object-" display="localDestroy"/>
+    <hyperlink ref="A60" r:id="rId17" location="localDestroyRegion--"/>
+    <hyperlink ref="A62" r:id="rId18" location="localDestroyRegion--" display="localDestroyRegion"/>
+    <hyperlink ref="A61" r:id="rId19" location="localDestroyRegion--" display="localDestroyRegion"/>
+    <hyperlink ref="A63" r:id="rId20" location="localInvalidate-java.lang.Object-" display="localInvalidate"/>
+    <hyperlink ref="A18" r:id="rId21" location="query-java.lang.String-" display="query"/>
+    <hyperlink ref="A68" r:id="rId22" location="selectValue-java.lang.String-"/>
+    <hyperlink ref="A69" r:id="rId23" location="setUserAttribute-java.lang.Object-"/>
+    <hyperlink ref="A70" r:id="rId24" location="subregions-boolean-"/>
+    <hyperlink ref="A71" r:id="rId25" location="unregisterInterest-K-"/>
+    <hyperlink ref="A72" r:id="rId26" location="unregisterInterestRegex-java.lang.String-"/>
+    <hyperlink ref="A25" r:id="rId27" location="values--"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -820,19 +1518,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2" ht="20">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="25600" windowHeight="15780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="beta0.1" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
